--- a/biology/Médecine/Carl_Wickland/Carl_Wickland.xlsx
+++ b/biology/Médecine/Carl_Wickland/Carl_Wickland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le docteur Carl Wickland (14 février 1861 - 13 novembre 1945) était un psychiatre américain connu pour ses méthodes de guérison mettant en œuvre des techniques de spiritisme. Il devient surtout célèbre après la parution de ses mémoires en 1924: Trente ans parmi les morts.
 </t>
@@ -511,7 +523,9 @@
           <t>Psychiatre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Immigrant suédois, il étudia la médecine aux États-Unis et obtint son diplôme du Durham Medical College, près de Chicago, Illinois. Il commença ensuite sa carrière de médecin en se spécialisant dans les maladies mentales.
 En 1909, il devint responsable du service psychiatrique de la National Psychopathic Institute, toujours à Chicago.
@@ -544,7 +558,9 @@
           <t>Spirite</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le docteur Wickland, fervent adepte de la doctrine du spiritisme, considérait que la plupart de ses malades mentaux se trouvaient sous l'emprise d'esprits mauvais ou ignorants. Il entreprit donc d'entrer en communication avec ces esprits obsessionnels afin de les convaincre de libérer le malade. Pour cela il bénéficiait de l'aide de sa femme qui jouait le rôle de médium.
 Le docteur Wickland résume ainsi son point de vue dans l'introduction de son livre, Trente ans parmi les morts :
@@ -579,7 +595,9 @@
           <t>Rôle essentiel de Madame Wickland</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès le chapitre 2 de ses mémoires, le docteur Wickland explique sa manière de procéder :
 "Ma femme s'est révélée une excellente médium et des intelligences désincarnées peuvent aisément la "contrôler", c'est-à-dire prendre momentanément possession d'elle pour communiquer avec les personnes physiques."
@@ -613,7 +631,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(fr) Trente ans parmi les morts, La Pierre d'Angle Exergue, Collecion des deux mondes, 1997,  (ISBN 2-911525-09-4)
 (en) Thirty years among the dead, Newcasle Pub Co Inc, 1974,  (ISBN 978-0-87877-025-0) (à titre d'exemple, en effet ce livre est constamment réédité par plusieurs éditeurs américains).
